--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/23/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/23/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>6.50974</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>6509.74</v>
       </c>
     </row>
     <row r="9">
@@ -532,967 +532,967 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>7.00887</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>7008.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>7.56406</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>7564.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.27889</v>
       </c>
       <c r="B11" t="n">
-        <v>9.96674</v>
+        <v>7.892510000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9966.74</v>
+        <v>7892.51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309815</v>
       </c>
       <c r="B12" t="n">
-        <v>10.5542</v>
+        <v>8.17488</v>
       </c>
       <c r="C12" t="n">
-        <v>10554.2</v>
+        <v>8174.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.34074</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0279</v>
+        <v>8.36983</v>
       </c>
       <c r="C13" t="n">
-        <v>11027.9</v>
+        <v>8369.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371665</v>
       </c>
       <c r="B14" t="n">
-        <v>11.3782</v>
+        <v>8.529729999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>11378.2</v>
+        <v>8529.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.40259</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6051</v>
+        <v>8.61975</v>
       </c>
       <c r="C15" t="n">
-        <v>11605.1</v>
+        <v>8619.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433515</v>
       </c>
       <c r="B16" t="n">
-        <v>11.7212</v>
+        <v>8.68389</v>
       </c>
       <c r="C16" t="n">
-        <v>11721.2</v>
+        <v>8683.889999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.46444</v>
       </c>
       <c r="B17" t="n">
-        <v>11.759</v>
+        <v>8.723889999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>11759</v>
+        <v>8723.889999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495366</v>
       </c>
       <c r="B18" t="n">
-        <v>11.7603</v>
+        <v>8.748700000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>11760.3</v>
+        <v>8748.700000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526291</v>
       </c>
       <c r="B19" t="n">
-        <v>11.7377</v>
+        <v>8.77369</v>
       </c>
       <c r="C19" t="n">
-        <v>11737.7</v>
+        <v>8773.690000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557216</v>
       </c>
       <c r="B20" t="n">
-        <v>11.7091</v>
+        <v>8.793520000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>11709.1</v>
+        <v>8793.52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588141</v>
       </c>
       <c r="B21" t="n">
-        <v>11.6755</v>
+        <v>8.809989999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>11675.5</v>
+        <v>8809.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619183</v>
       </c>
       <c r="B22" t="n">
-        <v>11.6396</v>
+        <v>8.82531</v>
       </c>
       <c r="C22" t="n">
-        <v>11639.6</v>
+        <v>8825.309999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650355</v>
       </c>
       <c r="B23" t="n">
-        <v>11.6013</v>
+        <v>8.83942</v>
       </c>
       <c r="C23" t="n">
-        <v>11601.3</v>
+        <v>8839.42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681528</v>
       </c>
       <c r="B24" t="n">
-        <v>11.5618</v>
+        <v>8.852450000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>11561.8</v>
+        <v>8852.450000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712705</v>
       </c>
       <c r="B25" t="n">
-        <v>11.5212</v>
+        <v>8.864090000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>11521.2</v>
+        <v>8864.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.743877</v>
       </c>
       <c r="B26" t="n">
-        <v>11.4785</v>
+        <v>8.87448</v>
       </c>
       <c r="C26" t="n">
-        <v>11478.5</v>
+        <v>8874.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775054</v>
       </c>
       <c r="B27" t="n">
-        <v>11.4341</v>
+        <v>8.884309999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>11434.1</v>
+        <v>8884.309999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806227</v>
       </c>
       <c r="B28" t="n">
-        <v>11.3879</v>
+        <v>8.893660000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>11387.9</v>
+        <v>8893.66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837399</v>
       </c>
       <c r="B29" t="n">
-        <v>11.3396</v>
+        <v>8.901899999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>11339.6</v>
+        <v>8901.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868577</v>
       </c>
       <c r="B30" t="n">
-        <v>11.2886</v>
+        <v>8.90962</v>
       </c>
       <c r="C30" t="n">
-        <v>11288.6</v>
+        <v>8909.620000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899749</v>
       </c>
       <c r="B31" t="n">
-        <v>11.2351</v>
+        <v>8.916740000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>11235.1</v>
+        <v>8916.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930922</v>
       </c>
       <c r="B32" t="n">
-        <v>11.1793</v>
+        <v>8.923159999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>11179.3</v>
+        <v>8923.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962099</v>
       </c>
       <c r="B33" t="n">
-        <v>11.121</v>
+        <v>8.92916</v>
       </c>
       <c r="C33" t="n">
-        <v>11121</v>
+        <v>8929.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993271</v>
       </c>
       <c r="B34" t="n">
-        <v>11.0591</v>
+        <v>8.934530000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>11059.1</v>
+        <v>8934.530000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>10.994</v>
+        <v>8.93948</v>
       </c>
       <c r="C35" t="n">
-        <v>10994</v>
+        <v>8939.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05593</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>10.924</v>
+        <v>8.94393</v>
       </c>
       <c r="C36" t="n">
-        <v>10924</v>
+        <v>8943.93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08711</v>
       </c>
       <c r="B37" t="n">
-        <v>10.8492</v>
+        <v>8.947900000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>10849.2</v>
+        <v>8947.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11869</v>
+        <v>1.11808</v>
       </c>
       <c r="B38" t="n">
-        <v>10.7694</v>
+        <v>8.951459999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>10769.4</v>
+        <v>8951.459999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15007</v>
+        <v>1.14904</v>
       </c>
       <c r="B39" t="n">
-        <v>10.6845</v>
+        <v>8.95458</v>
       </c>
       <c r="C39" t="n">
-        <v>10684.5</v>
+        <v>8954.58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18145</v>
+        <v>1.18001</v>
       </c>
       <c r="B40" t="n">
-        <v>10.5939</v>
+        <v>8.9573</v>
       </c>
       <c r="C40" t="n">
-        <v>10593.9</v>
+        <v>8957.299999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21275</v>
+        <v>1.21098</v>
       </c>
       <c r="B41" t="n">
-        <v>10.4981</v>
+        <v>8.959610000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>10498.1</v>
+        <v>8959.610000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24364</v>
+        <v>1.24178</v>
       </c>
       <c r="B42" t="n">
-        <v>10.3969</v>
+        <v>8.961540000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>10396.9</v>
+        <v>8961.540000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27475</v>
+        <v>1.27234</v>
       </c>
       <c r="B43" t="n">
-        <v>10.2897</v>
+        <v>8.963100000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>10289.7</v>
+        <v>8963.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30566</v>
+        <v>1.30289</v>
       </c>
       <c r="B44" t="n">
-        <v>10.1769</v>
+        <v>8.964320000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>10176.9</v>
+        <v>8964.32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33672</v>
+        <v>1.33345</v>
       </c>
       <c r="B45" t="n">
-        <v>10.0581</v>
+        <v>8.965170000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>10058.1</v>
+        <v>8965.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36773</v>
+        <v>1.36471</v>
       </c>
       <c r="B46" t="n">
-        <v>9.93341</v>
+        <v>8.96571</v>
       </c>
       <c r="C46" t="n">
-        <v>9933.41</v>
+        <v>8965.709999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39865</v>
+        <v>1.39629</v>
       </c>
       <c r="B47" t="n">
-        <v>9.803280000000001</v>
+        <v>8.965909999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>9803.280000000001</v>
+        <v>8965.91</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42976</v>
+        <v>1.42758</v>
       </c>
       <c r="B48" t="n">
-        <v>9.666600000000001</v>
+        <v>8.965790000000002</v>
       </c>
       <c r="C48" t="n">
-        <v>9666.6</v>
+        <v>8965.790000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4606</v>
+        <v>1.45873</v>
       </c>
       <c r="B49" t="n">
-        <v>9.525690000000001</v>
+        <v>8.96532</v>
       </c>
       <c r="C49" t="n">
-        <v>9525.690000000001</v>
+        <v>8965.32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49177</v>
+        <v>1.48988</v>
       </c>
       <c r="B50" t="n">
-        <v>9.37865</v>
+        <v>8.964530000000002</v>
       </c>
       <c r="C50" t="n">
-        <v>9378.65</v>
+        <v>8964.530000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52252</v>
+        <v>1.52102</v>
       </c>
       <c r="B51" t="n">
-        <v>9.228700000000002</v>
+        <v>8.96339</v>
       </c>
       <c r="C51" t="n">
-        <v>9228.700000000001</v>
+        <v>8963.389999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.5538</v>
+        <v>1.55217</v>
       </c>
       <c r="B52" t="n">
-        <v>9.072190000000001</v>
+        <v>8.961969999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>9072.190000000001</v>
+        <v>8961.969999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58457</v>
+        <v>1.58322</v>
       </c>
       <c r="B53" t="n">
-        <v>8.91417</v>
+        <v>8.960190000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>8914.17</v>
+        <v>8960.190000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61577</v>
+        <v>1.61394</v>
       </c>
       <c r="B54" t="n">
-        <v>8.751749999999999</v>
+        <v>8.958170000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>8751.75</v>
+        <v>8958.17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64664</v>
+        <v>1.64466</v>
       </c>
       <c r="B55" t="n">
-        <v>8.58816</v>
+        <v>8.95581</v>
       </c>
       <c r="C55" t="n">
-        <v>8588.16</v>
+        <v>8955.809999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67779</v>
+        <v>1.67538</v>
       </c>
       <c r="B56" t="n">
-        <v>8.4215</v>
+        <v>8.953139999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>8421.5</v>
+        <v>8953.139999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70856</v>
+        <v>1.7061</v>
       </c>
       <c r="B57" t="n">
-        <v>8.256290000000002</v>
+        <v>8.950139999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>8256.290000000001</v>
+        <v>8950.139999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73978</v>
+        <v>1.73681</v>
       </c>
       <c r="B58" t="n">
-        <v>8.08953</v>
+        <v>8.946860000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>8089.53</v>
+        <v>8946.860000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77042</v>
+        <v>1.76789</v>
       </c>
       <c r="B59" t="n">
-        <v>7.927350000000001</v>
+        <v>8.94313</v>
       </c>
       <c r="C59" t="n">
-        <v>7927.35</v>
+        <v>8943.129999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.8018</v>
+        <v>1.79924</v>
       </c>
       <c r="B60" t="n">
-        <v>7.76315</v>
+        <v>8.938969999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>7763.15</v>
+        <v>8938.969999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83253</v>
+        <v>1.83057</v>
       </c>
       <c r="B61" t="n">
-        <v>7.60495</v>
+        <v>8.934360000000002</v>
       </c>
       <c r="C61" t="n">
-        <v>7604.95</v>
+        <v>8934.360000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86375</v>
+        <v>1.86191</v>
       </c>
       <c r="B62" t="n">
-        <v>7.44673</v>
+        <v>8.92937</v>
       </c>
       <c r="C62" t="n">
-        <v>7446.73</v>
+        <v>8929.370000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89472</v>
+        <v>1.89325</v>
       </c>
       <c r="B63" t="n">
-        <v>7.2934</v>
+        <v>8.92399</v>
       </c>
       <c r="C63" t="n">
-        <v>7293.4</v>
+        <v>8923.99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92553</v>
+        <v>1.92459</v>
       </c>
       <c r="B64" t="n">
-        <v>7.14425</v>
+        <v>8.918229999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>7144.25</v>
+        <v>8918.23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95683</v>
+        <v>1.95592</v>
       </c>
       <c r="B65" t="n">
-        <v>6.997260000000001</v>
+        <v>8.91211</v>
       </c>
       <c r="C65" t="n">
-        <v>6997.26</v>
+        <v>8912.110000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98752</v>
+        <v>1.98689</v>
       </c>
       <c r="B66" t="n">
-        <v>6.85766</v>
+        <v>8.90565</v>
       </c>
       <c r="C66" t="n">
-        <v>6857.66</v>
+        <v>8905.65</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01872</v>
+        <v>2.01779</v>
       </c>
       <c r="B67" t="n">
-        <v>6.72062</v>
+        <v>8.89878</v>
       </c>
       <c r="C67" t="n">
-        <v>6720.62</v>
+        <v>8898.780000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05001</v>
+        <v>2.04869</v>
       </c>
       <c r="B68" t="n">
-        <v>6.58935</v>
+        <v>8.891620000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>6589.35</v>
+        <v>8891.620000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08041</v>
+        <v>2.07959</v>
       </c>
       <c r="B69" t="n">
-        <v>6.4664</v>
+        <v>8.88401</v>
       </c>
       <c r="C69" t="n">
-        <v>6466.4</v>
+        <v>8884.01</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11181</v>
+        <v>2.11048</v>
       </c>
       <c r="B70" t="n">
-        <v>6.34598</v>
+        <v>8.87598</v>
       </c>
       <c r="C70" t="n">
-        <v>6345.98</v>
+        <v>8875.98</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14319</v>
+        <v>2.14138</v>
       </c>
       <c r="B71" t="n">
-        <v>6.233210000000001</v>
+        <v>8.867620000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>6233.21</v>
+        <v>8867.620000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17331</v>
+        <v>2.17227</v>
       </c>
       <c r="B72" t="n">
-        <v>6.12785</v>
+        <v>8.85901</v>
       </c>
       <c r="C72" t="n">
-        <v>6127.85</v>
+        <v>8859.01</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20488</v>
+        <v>2.20317</v>
       </c>
       <c r="B73" t="n">
-        <v>6.024100000000001</v>
+        <v>8.8499</v>
       </c>
       <c r="C73" t="n">
-        <v>6024.1</v>
+        <v>8849.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23611</v>
+        <v>2.23407</v>
       </c>
       <c r="B74" t="n">
-        <v>5.92611</v>
+        <v>8.840400000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>5926.11</v>
+        <v>8840.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26651</v>
+        <v>2.26496</v>
       </c>
       <c r="B75" t="n">
-        <v>5.83469</v>
+        <v>8.830590000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>5834.69</v>
+        <v>8830.59</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29762</v>
+        <v>2.29586</v>
       </c>
       <c r="B76" t="n">
-        <v>5.74715</v>
+        <v>8.82047</v>
       </c>
       <c r="C76" t="n">
-        <v>5747.15</v>
+        <v>8820.469999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32941</v>
+        <v>2.32676</v>
       </c>
       <c r="B77" t="n">
-        <v>5.67348</v>
+        <v>8.80991</v>
       </c>
       <c r="C77" t="n">
-        <v>5673.48</v>
+        <v>8809.91</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36113</v>
+        <v>2.35766</v>
       </c>
       <c r="B78" t="n">
-        <v>5.64983</v>
+        <v>8.798780000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>5649.83</v>
+        <v>8798.780000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3925</v>
+        <v>2.38855</v>
       </c>
       <c r="B79" t="n">
-        <v>5.63042</v>
+        <v>8.7873</v>
       </c>
       <c r="C79" t="n">
-        <v>5630.42</v>
+        <v>8787.299999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42236</v>
+        <v>2.41962</v>
       </c>
       <c r="B80" t="n">
-        <v>5.61587</v>
+        <v>8.775180000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>5615.87</v>
+        <v>8775.18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45223</v>
+        <v>2.45071</v>
       </c>
       <c r="B81" t="n">
-        <v>5.59356</v>
+        <v>8.762350000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>5593.56</v>
+        <v>8762.35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4821</v>
+        <v>2.48179</v>
       </c>
       <c r="B82" t="n">
-        <v>5.57596</v>
+        <v>8.74892</v>
       </c>
       <c r="C82" t="n">
-        <v>5575.96</v>
+        <v>8748.92</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51196</v>
+        <v>2.51288</v>
       </c>
       <c r="B83" t="n">
-        <v>5.55116</v>
+        <v>8.734879999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>5551.16</v>
+        <v>8734.879999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54173</v>
+        <v>2.54396</v>
       </c>
       <c r="B84" t="n">
-        <v>5.522100000000001</v>
+        <v>8.720049999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>5522.1</v>
+        <v>8720.049999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56954</v>
+        <v>2.57505</v>
       </c>
       <c r="B85" t="n">
-        <v>5.49824</v>
+        <v>8.70439</v>
       </c>
       <c r="C85" t="n">
-        <v>5498.24</v>
+        <v>8704.389999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60282</v>
+        <v>2.60613</v>
       </c>
       <c r="B86" t="n">
-        <v>5.46573</v>
+        <v>8.687889999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>5465.73</v>
+        <v>8687.889999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.6361</v>
+        <v>2.63722</v>
       </c>
       <c r="B87" t="n">
-        <v>5.43158</v>
+        <v>8.670350000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>5431.58</v>
+        <v>8670.35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66938</v>
+        <v>2.66831</v>
       </c>
       <c r="B88" t="n">
-        <v>5.39437</v>
+        <v>8.65211</v>
       </c>
       <c r="C88" t="n">
-        <v>5394.37</v>
+        <v>8652.110000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70266</v>
+        <v>2.69939</v>
       </c>
       <c r="B89" t="n">
-        <v>5.36206</v>
+        <v>8.63311</v>
       </c>
       <c r="C89" t="n">
-        <v>5362.06</v>
+        <v>8633.110000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73458</v>
+        <v>2.73048</v>
       </c>
       <c r="B90" t="n">
-        <v>5.32747</v>
+        <v>8.6135</v>
       </c>
       <c r="C90" t="n">
-        <v>5327.47</v>
+        <v>8613.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7653</v>
+        <v>2.76156</v>
       </c>
       <c r="B91" t="n">
-        <v>5.28542</v>
+        <v>8.59324</v>
       </c>
       <c r="C91" t="n">
-        <v>5285.42</v>
+        <v>8593.24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79602</v>
+        <v>2.79265</v>
       </c>
       <c r="B92" t="n">
-        <v>5.25266</v>
+        <v>8.572030000000002</v>
       </c>
       <c r="C92" t="n">
-        <v>5252.66</v>
+        <v>8572.030000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82674</v>
+        <v>2.82373</v>
       </c>
       <c r="B93" t="n">
-        <v>5.21797</v>
+        <v>8.54988</v>
       </c>
       <c r="C93" t="n">
-        <v>5217.97</v>
+        <v>8549.879999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85746</v>
+        <v>2.85482</v>
       </c>
       <c r="B94" t="n">
-        <v>5.1894</v>
+        <v>8.526719999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>5189.4</v>
+        <v>8526.719999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88818</v>
+        <v>2.88591</v>
       </c>
       <c r="B95" t="n">
-        <v>5.151479999999999</v>
+        <v>8.502420000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>5151.48</v>
+        <v>8502.42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9189</v>
+        <v>2.91699</v>
       </c>
       <c r="B96" t="n">
-        <v>5.12066</v>
+        <v>8.47659</v>
       </c>
       <c r="C96" t="n">
-        <v>5120.66</v>
+        <v>8476.59</v>
       </c>
     </row>
     <row r="97">
@@ -1500,65 +1500,65 @@
         <v>2.94808</v>
       </c>
       <c r="B97" t="n">
-        <v>5.08685</v>
+        <v>8.44942</v>
       </c>
       <c r="C97" t="n">
-        <v>5086.85</v>
+        <v>8449.42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97623</v>
+        <v>2.97916</v>
       </c>
       <c r="B98" t="n">
-        <v>5.0557</v>
+        <v>8.42093</v>
       </c>
       <c r="C98" t="n">
-        <v>5055.7</v>
+        <v>8420.93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0044</v>
+        <v>3.00952</v>
       </c>
       <c r="B99" t="n">
-        <v>5.029430000000001</v>
+        <v>8.39147</v>
       </c>
       <c r="C99" t="n">
-        <v>5029.43</v>
+        <v>8391.469999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03256</v>
+        <v>3.0397</v>
       </c>
       <c r="B100" t="n">
-        <v>5.0003</v>
+        <v>8.36073</v>
       </c>
       <c r="C100" t="n">
-        <v>5000.3</v>
+        <v>8360.73</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06072</v>
+        <v>3.07109</v>
       </c>
       <c r="B101" t="n">
-        <v>4.97463</v>
+        <v>8.327129999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>4974.63</v>
+        <v>8327.129999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09186</v>
+        <v>3.10259</v>
       </c>
       <c r="B102" t="n">
-        <v>4.94007</v>
+        <v>8.291459999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>4940.07</v>
+        <v>8291.459999999999</v>
       </c>
     </row>
   </sheetData>
